--- a/nCount.xlsx
+++ b/nCount.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,9 +13,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+  <si>
+    <t>lung1</t>
+  </si>
+  <si>
+    <t>lung2</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>with 2yr survival</t>
+  </si>
+  <si>
+    <t>NSCLC only</t>
+  </si>
+  <si>
+    <t>stage 1,2,3</t>
+  </si>
+  <si>
+    <t>no surgery</t>
+  </si>
+  <si>
+    <t>run 48</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>validate</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>class0</t>
+  </si>
+  <si>
+    <t>class1</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>lung1+rt</t>
+  </si>
+  <si>
+    <t>run 50</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>run 51</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +88,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -40,18 +119,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +281,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +489,334 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.265625" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>344</v>
+      </c>
+      <c r="C6" s="2">
+        <v>145</v>
+      </c>
+      <c r="D6" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>211</v>
+      </c>
+      <c r="C7" s="2">
+        <v>135</v>
+      </c>
+      <c r="D7" s="2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>117</v>
+      </c>
+      <c r="C8" s="2">
+        <v>104</v>
+      </c>
+      <c r="D8" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
+        <v>117</v>
+      </c>
+      <c r="C9" s="7">
+        <v>104</v>
+      </c>
+      <c r="D9" s="8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>83</v>
+      </c>
+      <c r="C10" s="2">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>368</v>
+      </c>
+      <c r="C15" s="2">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>196</v>
+      </c>
+      <c r="C16" s="2">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>172</v>
+      </c>
+      <c r="C17" s="2">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5">
+        <v>385</v>
+      </c>
+      <c r="C21" s="5">
+        <v>41</v>
+      </c>
+      <c r="D21" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5">
+        <v>208</v>
+      </c>
+      <c r="C22" s="5">
+        <v>25</v>
+      </c>
+      <c r="D22" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="5">
+        <v>177</v>
+      </c>
+      <c r="C23" s="5">
+        <v>16</v>
+      </c>
+      <c r="D23" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="5">
+        <v>254</v>
+      </c>
+      <c r="C27" s="5">
+        <v>39</v>
+      </c>
+      <c r="D27" s="5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="5">
+        <v>121</v>
+      </c>
+      <c r="C28" s="5">
+        <v>13</v>
+      </c>
+      <c r="D28" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="5">
+        <v>133</v>
+      </c>
+      <c r="C29" s="5">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nCount.xlsx
+++ b/nCount.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
   <si>
     <t>lung1</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>rt</t>
+  </si>
+  <si>
+    <t>run 52/53</t>
+  </si>
+  <si>
+    <t>run 54</t>
   </si>
 </sst>
 </file>
@@ -160,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,6 +190,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:D29"/>
+  <dimension ref="A5:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -661,7 +670,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -675,7 +684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -689,21 +698,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -717,7 +726,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -731,7 +740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -745,7 +754,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
@@ -758,22 +767,88 @@
       <c r="D25" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
@@ -786,8 +861,41 @@
       <c r="D27" s="5">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E27" s="2">
+        <v>104</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="5">
+        <v>99</v>
+      </c>
+      <c r="I27" s="5">
+        <v>15</v>
+      </c>
+      <c r="J27" s="9">
+        <v>293</v>
+      </c>
+      <c r="K27" s="2">
+        <v>104</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" s="5">
+        <v>83</v>
+      </c>
+      <c r="O27" s="5">
+        <v>21</v>
+      </c>
+      <c r="P27" s="9">
+        <v>293</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -800,8 +908,41 @@
       <c r="D28" s="5">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E28" s="2">
+        <v>76</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="5">
+        <v>68</v>
+      </c>
+      <c r="I28" s="5">
+        <v>13</v>
+      </c>
+      <c r="J28" s="2">
+        <v>134</v>
+      </c>
+      <c r="K28" s="2">
+        <v>76</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="5">
+        <v>63</v>
+      </c>
+      <c r="O28" s="5">
+        <v>13</v>
+      </c>
+      <c r="P28" s="2">
+        <v>134</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
@@ -814,9 +955,42 @@
       <c r="D29" s="5">
         <v>34</v>
       </c>
+      <c r="E29" s="2">
+        <v>28</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="5">
+        <v>31</v>
+      </c>
+      <c r="I29" s="5">
+        <v>3</v>
+      </c>
+      <c r="J29" s="2">
+        <v>159</v>
+      </c>
+      <c r="K29" s="2">
+        <v>28</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="5">
+        <v>20</v>
+      </c>
+      <c r="O29" s="5">
+        <v>8</v>
+      </c>
+      <c r="P29" s="2">
+        <v>159</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="150" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nCount.xlsx
+++ b/nCount.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
   <si>
     <t>lung1</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>run 54</t>
+  </si>
+  <si>
+    <t>survival median</t>
   </si>
 </sst>
 </file>
@@ -499,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:Q29"/>
+  <dimension ref="A5:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -582,415 +585,455 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2">
-        <v>83</v>
-      </c>
-      <c r="C10" s="2">
-        <v>76</v>
-      </c>
-      <c r="D10" s="2">
-        <v>134</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1.22</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>83</v>
+      </c>
+      <c r="C11" s="2">
+        <v>76</v>
+      </c>
+      <c r="D11" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>34</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>28</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2">
-        <v>368</v>
-      </c>
-      <c r="C15" s="2">
-        <v>42</v>
-      </c>
-      <c r="D15" s="2">
-        <v>104</v>
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2">
+        <v>368</v>
+      </c>
+      <c r="C17" s="2">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B18" s="2">
         <v>196</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C18" s="2">
         <v>21</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D18" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B19" s="2">
         <v>172</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C19" s="2">
         <v>21</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D19" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B23" s="5">
         <v>385</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C23" s="5">
         <v>41</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D23" s="5">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B24" s="5">
         <v>208</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C24" s="5">
         <v>25</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D24" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B25" s="5">
         <v>177</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C25" s="5">
         <v>16</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D25" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="3" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="5">
+        <v>254</v>
+      </c>
+      <c r="C30" s="5">
+        <v>39</v>
+      </c>
+      <c r="D30" s="5">
+        <v>117</v>
+      </c>
+      <c r="E30" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="5">
+        <v>121</v>
+      </c>
+      <c r="C31" s="5">
+        <v>13</v>
+      </c>
+      <c r="D31" s="5">
+        <v>83</v>
+      </c>
+      <c r="E31" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="5">
+        <v>133</v>
+      </c>
+      <c r="C32" s="5">
+        <v>26</v>
+      </c>
+      <c r="D32" s="5">
+        <v>34</v>
+      </c>
+      <c r="E32" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="3" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="5">
+        <v>99</v>
+      </c>
+      <c r="C36" s="5">
+        <v>15</v>
+      </c>
+      <c r="D36" s="9">
+        <v>293</v>
+      </c>
+      <c r="E36" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="5">
+        <v>68</v>
+      </c>
+      <c r="C37" s="5">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
+        <v>134</v>
+      </c>
+      <c r="E37" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="5">
+        <v>31</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2">
+        <v>159</v>
+      </c>
+      <c r="E38" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A26" s="4" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="5">
-        <v>254</v>
-      </c>
-      <c r="C27" s="5">
-        <v>39</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="B42" s="5">
+        <v>83</v>
+      </c>
+      <c r="C42" s="5">
+        <v>21</v>
+      </c>
+      <c r="D42" s="9">
+        <v>293</v>
+      </c>
+      <c r="E42" s="5">
         <v>117</v>
       </c>
-      <c r="E27" s="2">
-        <v>104</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="5">
-        <v>99</v>
-      </c>
-      <c r="I27" s="5">
-        <v>15</v>
-      </c>
-      <c r="J27" s="9">
-        <v>293</v>
-      </c>
-      <c r="K27" s="2">
-        <v>104</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N27" s="5">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="5">
+        <v>63</v>
+      </c>
+      <c r="C43" s="5">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2">
+        <v>134</v>
+      </c>
+      <c r="E43" s="5">
         <v>83</v>
       </c>
-      <c r="O27" s="5">
-        <v>21</v>
-      </c>
-      <c r="P27" s="9">
-        <v>293</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="5">
-        <v>121</v>
-      </c>
-      <c r="C28" s="5">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="5">
-        <v>83</v>
-      </c>
-      <c r="E28" s="2">
-        <v>76</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="5">
-        <v>68</v>
-      </c>
-      <c r="I28" s="5">
-        <v>13</v>
-      </c>
-      <c r="J28" s="2">
-        <v>134</v>
-      </c>
-      <c r="K28" s="2">
-        <v>76</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="5">
-        <v>63</v>
-      </c>
-      <c r="O28" s="5">
-        <v>13</v>
-      </c>
-      <c r="P28" s="2">
-        <v>134</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="5">
-        <v>133</v>
-      </c>
-      <c r="C29" s="5">
-        <v>26</v>
-      </c>
-      <c r="D29" s="5">
-        <v>34</v>
-      </c>
-      <c r="E29" s="2">
-        <v>28</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="5">
-        <v>31</v>
-      </c>
-      <c r="I29" s="5">
-        <v>3</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="B44" s="5">
+        <v>20</v>
+      </c>
+      <c r="C44" s="5">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2">
         <v>159</v>
       </c>
-      <c r="K29" s="2">
-        <v>28</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N29" s="5">
-        <v>20</v>
-      </c>
-      <c r="O29" s="5">
-        <v>8</v>
-      </c>
-      <c r="P29" s="2">
-        <v>159</v>
-      </c>
-      <c r="Q29" s="5">
+      <c r="E44" s="5">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="150" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>